--- a/outputs/DELHI3.xlsx
+++ b/outputs/DELHI3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to accomplish tasks efficiently and is likely to read available information to understand how to contribute to JabRef. The comprehensive information on the page helps Abi form a complete understanding before taking action. This aligns with Abi's motivation to use technology to accomplish tasks and their comprehensive information processing style.</t>
+Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page provides detailed and comprehensive information about JabRef, its features, and how to contribute. This aligns with Abi's comprehensive information processing style, as they prefer to read and gather all necessary details before taking action. Additionally, the structured and step-by-step nature of the information supports Abi's process-oriented learning style, making it clear what needs to be done.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, and contributing. ABI, who is motivated to accomplish tasks and prefers to gather all relevant information before proceeding, will find this page suitable for reading the available information. The detailed content aligns with ABI's comprehensive information processing style, making it clear what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After reading the information on the page, Abi will have a clear understanding of what JabRef is and how to contribute to it. The page offers detailed sections on features, installation, and contributing, which align well with Abi's comprehensive information processing style. Additionally, the structured and clear presentation of the information supports Abi's process-oriented learning style. Therefore, Abi will know that they are making progress and will have the information needed to contribute.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed sections on various aspects of JabRef, including features, installation, and contributing. If ABI reads through this information, they will know they are making progress toward their goal of finding something to contribute to JabRef. The comprehensive information aligns with ABI's need to gather all relevant details before proceeding, ensuring they feel confident they are on the right track and have the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link "Learn how to help" is clearly labeled and located under the "Contributing" section. This provides a clear indication that clicking it will provide more information on how to contribute. The page gives enough context and detailed steps, aligning with Abi's comprehensive information processing style and process-oriented learning style. Hence, Abi will know what to do at this step and will feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides a clear call to action, making it easy for ABI to understand what to do next and ensuring the page is good enough for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The new page "Contribute to JabRef" provides a well-organized and detailed set of options tailored to different user profiles (e.g., students, new to open source, looking for high-impact contributions). This aligns with Abi's comprehensive information processing style, as the page offers all the necessary information in a clear and structured manner. The detailed instructions and multiple options also support Abi's process-oriented learning style, making it clear that they are making progress and have all the information needed to find something to contribute to JabRef.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Learn how to help," ABI lands on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized, with sections tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will know they are making progress toward their goal and will have access to all the necessary information to find something to contribute to JabRef.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well organized and clearly labeled with different sections for various contributor profiles, such as students, new contributors, and those seeking high-impact projects. This layout aligns with Abi's comprehensive information processing style, as it provides detailed and relevant options. The clear and segmented instructions also support Abi's process-oriented learning style, making it easy for them to understand what to do next. Therefore, Abi will know what to do at this step and the page is good enough for them to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is clearly structured and provides detailed information on various ways to contribute to JabRef, tailored to different types of contributors. ABI, who is motivated to accomplish tasks and prefers to gather comprehensive information, will find this page suitable for reading. The clear headings and organized content make it easy for ABI to know what to do at this step and ensure the page is good enough for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well-organized with clear sections tailored to different types of contributors. Each section provides links to relevant resources (e.g., lists of good first issues, university projects, documentation for developers). This aligns with Abi's comprehensive information processing style, as the page offers all the necessary information in a structured manner. The clear segmentation and straightforward instructions also support Abi's process-oriented learning style. Thus, Abi will know they did the right thing and are making progress toward their goal, with all the information they need readily available.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides clear and detailed information on various ways to contribute to JabRef, tailored to different types of contributors. ABI will know they are making progress toward their goal because the page is well-organized and offers specific actions and resources (e.g., lists of good first issues, university projects, documentation for developers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring they get all the information they need to contribute effectively.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link "list of good first issues" is clearly labeled and located within the context of the relevant section. This provides a clear indication that clicking it will lead Abi to a list of issues suitable for beginners. The page is well-organized, offering detailed instructions and segmented options, which align with Abi's comprehensive information processing style and process-oriented learning style. Therefore, Abi will know what to do at this step and the page is good enough for them to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels the "list of good first issues" link, making it easy for ABI to understand what to do at this step. ABI is motivated to find something to contribute to and prefers to gather comprehensive information. The link is prominently placed and contextually relevant, ensuring ABI knows that clicking it will provide a list of issues suitable for beginners, which aligns with their goal. The page is good enough for ABI to take this action as it provides clear guidance and relevant information.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on the "list of good first issues," Abi lands on a GitHub page that clearly lists issues labeled as "good first issue." The page is well-organized, with each issue clearly labeled and categorized, providing all the necessary details that Abi needs to make progress. This aligns with Abi's comprehensive information processing style, ensuring they have all the information needed. The structured presentation of issues supports Abi's process-oriented learning style, confirming that they did the right thing and are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "list of good first issues," ABI lands on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's goal of finding something to contribute to. The detailed list of issues, along with their descriptions and labels, ensures that ABI knows they are making progress toward their goal and has all the information they need to choose an appropriate task to contribute to JabRef.</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page lists issues clearly, with each issue labeled with relevant tags such as "good first issue," "bug," "enhancement," etc. This organization aligns with Abi's comprehensive information processing style, as it allows them to easily scan and identify issues of interest. The structured presentation and detailed labels also support Abi's process-oriented learning style, making it clear what each issue entails and what to do next. Therefore, Abi will know what to do at this step and the page is good enough for them to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and organized list of issues labeled as "good first issue," along with brief descriptions and labels indicating the type of issue (e.g., bug, enhancement). This makes it easy for ABI to understand what to do at this step. ABI is motivated to find something to contribute to and prefers to gather comprehensive information. The page is good enough for ABI to take this action as it provides clear options to explore further by clicking on an issue to learn more about it.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon clicking on an issue, Abi is taken to a detailed issue page on GitHub. The page provides comprehensive information about the issue, including a description, comments, and any relevant discussion. This aligns with Abi's comprehensive information processing style as it offers all the details needed to understand the issue fully. The structured format and detailed content also support Abi's process-oriented learning style, helping them confirm that they are making progress and have all the information needed to decide how to contribute.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the specific issue, the amount of information and the technical nature of the content might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive comments and technical details might make it difficult for ABI to quickly determine if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt if they are on the right track when faced with such a detailed and technical page.</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI3.xlsx
+++ b/outputs/DELHI3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding.</t>
+Why: ABI is motivated to accomplish the task of finding something to contribute to JabRef. Reading the available information is a logical first step to understand what contributions are needed and how to proceed. ABI's comprehensive information processing style aligns with thoroughly reading the provided information to form a complete understanding before taking further actions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, and contributing. ABI, who prefers to gather all relevant information before proceeding, will find this page suitable for reading and understanding what to do next. The clear headings and structured layout will help ABI know what to do at this step.</t>
+Why: The page provides comprehensive information about JabRef, including sections on features, installation, bug reports, suggestions, feedback, and contributing. ABI, who prefers to gather information comprehensively, will find this page suitable for reading and understanding the available information. The clear headings and structured content will help ABI know what to do at this step, aligning with their motivation to accomplish the task and their information processing style.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a detailed and structured layout of information, including sections on features, installation, and contributing. If ABI reads through the available information, they will know they are making progress toward their goal of finding something to contribute to JabRef. The comprehensive information aligns with ABI's preference for gathering all relevant details before proceeding, ensuring they have the necessary context and understanding to move forward.</t>
+Why: If ABI reads the available information on this page, they will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on contributing, including guidelines and steps to follow, which align with ABI's comprehensive information processing style. This structured and clear information will help ABI feel confident that they are on the right track and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI, who is motivated to accomplish tasks and prefers a comprehensive information processing style, will recognize that clicking this link is a logical next step to gather more detailed information on how to contribute. The page provides enough context for ABI to understand that this action will lead to more specific guidance on contributing.</t>
+Why: The page clearly indicates a section titled "Contributing" with a link labeled "Learn how to help." This provides ABI with a clear next step to take in their goal of finding something to contribute to JabRef. The explicit instruction aligns with ABI's motivation to accomplish the task and their preference for comprehensive information processing. The page is structured in a way that makes it easy for ABI to identify what to do next.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI lands on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized with specific sections for different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know they are making progress toward their goal and will have access to all the necessary information to decide how to contribute.</t>
+Why: After clicking "Learn how to help," ABI will land on a page that provides detailed and structured information on how to contribute to JabRef. The page is organized into sections catering to different types of contributors (e.g., students, new to open source, lecturers), which aligns with ABI's comprehensive information processing style. This clear and categorized information will help ABI know they are making progress toward their goal and provide them with the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and lecturers. This organization aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know to read through the relevant sections to gather the necessary information, making the page suitable for this action.</t>
+Why: The page is well-structured and provides clear, categorized information on how to contribute to JabRef, catering to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The clear headings and detailed instructions will help ABI know what to do at this step and feel confident that the page is good enough to take the action of reading the available information.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and detailed breakdown of different ways to contribute to JabRef, tailored to various types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. By reading through the relevant sections, ABI will know they are making progress toward their goal and will have access to all the necessary information to decide how to contribute effectively.</t>
+Why: The page provides detailed and categorized information on how to contribute to JabRef, catering to different types of contributors. This aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The clear instructions and links to further resources (e.g., "list of good first issues," "CONTRIBUTING.md") will help ABI know they are making progress toward their goal and provide them with the necessary information to proceed. The structured layout ensures that ABI can easily find and understand the steps they need to take.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "list of good first issues" as a hyperlink under the section for students and new contributors. This is a logical next step for ABI, who is motivated to find something to contribute to and prefers comprehensive information. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide more specific information on potential contributions.</t>
+Why: The page clearly provides a link labeled "list of good first issues," which is a logical next step for ABI to find something to contribute to JabRef. This aligns with ABI's motivation to contribute and their comprehensive information processing style. The link is prominently displayed and clearly labeled, making it easy for ABI to understand what to do next and feel confident that clicking it will provide relevant information to help them progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues," ABI lands on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of potential contributions, which aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The labels and descriptions of the issues will help ABI understand that they are making progress toward their goal and provide the necessary information to choose an issue to work on.</t>
+Why: After clicking on the "list of good first issues," ABI will land on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of tasks that ABI can choose from, which aligns with their motivation to find something to contribute to JabRef. The detailed issue descriptions and labels (e.g., type: enhancement, type: bug) provide comprehensive information, helping ABI understand the nature of each task. This structured presentation ensures that ABI knows they are making progress toward their goal and has all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized with a list of issues labeled as "good first issue," along with additional tags that describe the type of issue (e.g., bug, enhancement). This clear labeling and organization align with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know to read through the options and click on an issue to learn more about it, making the page suitable for this action.</t>
+Why: The page provides a clear list of issues labeled as "good first issue," with each issue having a brief description and relevant tags (e.g., type: enhancement, type: bug). This aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The structured presentation and detailed labels make it easy for ABI to understand what to do next—read the options and click on something they want to know more about. The page is well-organized and provides sufficient information for ABI to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the specific issue, it may be overwhelming for ABI due to the extensive amount of technical details and discussions. ABI prefers comprehensive information but may struggle with the technical jargon and the volume of information presented. Additionally, ABI's low computer self-efficacy might make them doubt whether they are making progress toward their goal, especially if they find the information difficult to understand or too technical. This could hinder their confidence in knowing they did the right thing and are making progress.</t>
+Why: While the page provides detailed information about the specific issue, the content is highly technical and may be overwhelming for ABI, who has low confidence in unfamiliar computing tasks. The extensive technical details, graphs, and discussions might be difficult for ABI to process comprehensively. ABI might struggle to understand if they are making progress toward their goal due to the complexity of the information presented. This could hinder ABI's ability to feel confident that they did the right thing and have all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
